--- a/Data/Discount_Cheker/CV Discount Check Master File 05.02.2026.xlsx
+++ b/Data/Discount_Cheker/CV Discount Check Master File 05.02.2026.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Auditor RSM Data\To be Consider\2025-26\11 Feb-2026\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEA40364-8131-43D1-866A-433D9888C08A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFB4F4C2-5419-475A-ACD2-907397122D21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" xr2:uid="{9C2300AC-C402-454B-B7CF-00A24C218261}"/>
   </bookViews>
@@ -2129,7 +2129,7 @@
       </c>
       <c r="D12" s="19">
         <f>IFERROR(VLOOKUP($D$3,Sheet1!$B$2:$Y$48,MATCH(Report!$C12,Sheet1!$B$2:$Y$2,0),0),"")</f>
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="E12" s="9"/>
       <c r="F12" s="30">
@@ -2155,7 +2155,7 @@
       </c>
       <c r="D13" s="20">
         <f>IFERROR(VLOOKUP($D$3,Sheet1!$B$2:$Y$48,MATCH(Report!$C13,Sheet1!$B$2:$Y$2,0),0),"")</f>
-        <v>1039643</v>
+        <v>1036643</v>
       </c>
       <c r="E13" s="9"/>
       <c r="F13" s="30">
@@ -2181,7 +2181,7 @@
       </c>
       <c r="D14" s="21">
         <f>IFERROR(VLOOKUP($D$3,Sheet1!$B$2:$Y$48,MATCH(Report!$C14,Sheet1!$B$2:$Y$2,0),0),"")</f>
-        <v>1017168</v>
+        <v>1014168</v>
       </c>
       <c r="E14" s="9"/>
       <c r="F14" s="30">
@@ -2620,7 +2620,7 @@
   <dimension ref="A1:T40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="O3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
       <selection pane="bottomRight" sqref="A1:B1"/>
@@ -4751,15 +4751,15 @@
         <v>3500</v>
       </c>
       <c r="J34" s="8">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="K34" s="8">
         <f t="shared" si="0"/>
-        <v>1039643</v>
+        <v>1036643</v>
       </c>
       <c r="L34" s="29">
         <f t="shared" si="1"/>
-        <v>1017168</v>
+        <v>1014168</v>
       </c>
       <c r="M34" s="43">
         <v>13000</v>
@@ -4815,15 +4815,15 @@
         <v>3500</v>
       </c>
       <c r="J35" s="8">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="K35" s="8">
         <f t="shared" si="0"/>
-        <v>1081763</v>
+        <v>1078763</v>
       </c>
       <c r="L35" s="29">
         <f t="shared" si="1"/>
-        <v>1058338</v>
+        <v>1055338</v>
       </c>
       <c r="M35" s="43">
         <v>13000</v>
@@ -4879,15 +4879,15 @@
         <v>3500</v>
       </c>
       <c r="J36" s="8">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="K36" s="8">
         <f t="shared" si="0"/>
-        <v>1135026</v>
+        <v>1132026</v>
       </c>
       <c r="L36" s="29">
         <f t="shared" si="1"/>
-        <v>1110401</v>
+        <v>1107401</v>
       </c>
       <c r="M36" s="43">
         <v>13000</v>
@@ -4943,15 +4943,15 @@
         <v>3500</v>
       </c>
       <c r="J37" s="8">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="K37" s="8">
         <f t="shared" si="0"/>
-        <v>1187205</v>
+        <v>1184205</v>
       </c>
       <c r="L37" s="29">
         <f t="shared" si="1"/>
-        <v>1151750</v>
+        <v>1148750</v>
       </c>
       <c r="M37" s="43">
         <v>13000</v>
@@ -5007,15 +5007,15 @@
         <v>3500</v>
       </c>
       <c r="J38" s="8">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="K38" s="8">
         <f t="shared" si="0"/>
-        <v>1194171</v>
+        <v>1191171</v>
       </c>
       <c r="L38" s="29">
         <f t="shared" si="1"/>
-        <v>1158471</v>
+        <v>1155471</v>
       </c>
       <c r="M38" s="43">
         <v>13000</v>
@@ -5426,9 +5426,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -5655,19 +5658,15 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{250AA7BD-7B6E-43C6-AED0-1E579093AA92}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9062C800-B5CF-4467-9EC7-2088426858BB}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -5692,9 +5691,10 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9062C800-B5CF-4467-9EC7-2088426858BB}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{250AA7BD-7B6E-43C6-AED0-1E579093AA92}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>